--- a/Stack_Store_Price.xlsx
+++ b/Stack_Store_Price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C231"/>
+  <dimension ref="A1:C245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3900,6 +3900,216 @@
         <v>51435014</v>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-02-19 13:10</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025-02-19 13:10</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>58556</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025-02-19 13:10</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>104159</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025-02-19 13:10</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>256228</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2025-02-19 13:10</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>1510474</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2025-02-19 13:10</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>4777979</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2025-02-19 13:10</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>56229666</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2025-02-20 13:11</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2025-02-20 13:11</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>58979</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2025-02-20 13:11</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>82064</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2025-02-20 13:11</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>255193</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-02-20 13:11</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>1308563</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-02-20 13:11</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>4472787</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-02-20 13:11</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>51700474</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Stack_Store_Price.xlsx
+++ b/Stack_Store_Price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C231"/>
+  <dimension ref="A1:C259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3900,6 +3900,426 @@
         <v>51435014</v>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-02-19 13:10</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025-02-19 13:10</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>58556</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025-02-19 13:10</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>104159</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025-02-19 13:10</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>256228</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2025-02-19 13:10</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>1510474</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2025-02-19 13:10</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>4777979</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2025-02-19 13:10</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>56229666</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2025-02-20 13:11</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2025-02-20 13:11</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>58979</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2025-02-20 13:11</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>82064</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2025-02-20 13:11</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>255193</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-02-20 13:11</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>1308563</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-02-20 13:11</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>4472787</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-02-20 13:11</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>51700474</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:05</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:05</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>61115</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:05</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>81793</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:05</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>234992</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:05</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>1377886</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:05</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>4196024</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:05</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>48738888</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:15</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:15</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>60865</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:15</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>82201</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:15</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>251820</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:15</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>1361866</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:15</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>4339712</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:15</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>47991333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Stack_Store_Price.xlsx
+++ b/Stack_Store_Price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C245"/>
+  <dimension ref="A1:C280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4110,6 +4110,531 @@
         <v>51700474</v>
       </c>
     </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:05</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:05</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>61115</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:05</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>81793</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:05</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>234992</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:05</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>1377886</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:05</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>4196024</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:05</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>48738888</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:15</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:15</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>60865</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:15</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>82201</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:15</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>251820</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:15</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>1361866</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:15</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>4339712</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2025-02-21 15:15</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>47991333</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2025-02-22 23:13</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2025-02-22 23:13</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>58880</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2025-02-22 23:13</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>77397</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2025-02-22 23:13</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>258619</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2025-02-22 23:13</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>1331886</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2025-02-22 23:13</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>4100093</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2025-02-22 23:13</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>44949713</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2025-02-23 23:37</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2025-02-23 23:37</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>59444</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2025-02-23 23:37</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>81852</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2025-02-23 23:37</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>228790</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2025-02-23 23:37</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>1333818</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2025-02-23 23:37</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>4269511</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2025-02-23 23:37</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>46037655</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2025-02-24 09:21</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2025-02-24 09:21</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>59743</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2025-02-24 09:21</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>82678</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2025-02-24 09:21</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>210064</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2025-02-24 09:21</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>1335595</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2025-02-24 09:21</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>4197473</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-02-24 09:21</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>46600791</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Stack_Store_Price.xlsx
+++ b/Stack_Store_Price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C259"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4320,6 +4320,636 @@
         <v>47991333</v>
       </c>
     </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2025-02-22 23:13</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2025-02-22 23:13</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>58880</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2025-02-22 23:13</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>77397</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2025-02-22 23:13</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>258619</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2025-02-22 23:13</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>1331886</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2025-02-22 23:13</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>4100093</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2025-02-22 23:13</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>44949713</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2025-02-23 23:37</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2025-02-23 23:37</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>59444</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2025-02-23 23:37</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>81852</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2025-02-23 23:37</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>228790</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2025-02-23 23:37</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>1333818</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2025-02-23 23:37</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>4269511</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2025-02-23 23:37</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>46037655</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2025-02-24 11:48</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2025-02-24 11:48</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>60133</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2025-02-24 11:48</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>78096</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2025-02-24 11:48</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>245134</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2025-02-24 11:48</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>1325503</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2025-02-24 11:48</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>4235368</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-02-24 11:48</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>46874184</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2025-02-24 13:03</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2025-02-24 13:03</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>60687</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2025-02-24 13:03</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>79096</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2025-02-24 13:03</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>245750</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2025-02-24 13:03</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>1352671</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2025-02-24 13:03</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>4224846</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2025-02-24 13:03</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>47641090</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2025-02-24 13:10</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2025-02-24 13:10</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>60673</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2025-02-24 13:10</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>81960</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2025-02-24 13:10</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>235941</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2025-02-24 13:10</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>1431718</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2025-02-24 13:10</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>4250463</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2025-02-24 13:10</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>47766847</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2025-02-25 09:09</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2025-02-25 09:09</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>61059</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2025-02-25 09:09</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>92057</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2025-02-25 09:09</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>256714</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2025-02-25 09:09</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>1373350</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2025-02-25 09:09</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>4353941</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2025-02-25 09:09</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>49786740</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Stack_Store_Price.xlsx
+++ b/Stack_Store_Price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C301"/>
+  <dimension ref="A1:C315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4950,6 +4950,216 @@
         <v>49786740</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2025-02-25 13:14</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2025-02-25 13:14</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>60549</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2025-02-25 13:14</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>82785</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2025-02-25 13:14</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>254586</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2025-02-25 13:14</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>1342073</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2025-02-25 13:14</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>4360516</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2025-02-25 13:14</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>49688738</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:13</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:13</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>60475</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:13</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>82879</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:13</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>242184</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:13</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>1490429</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:13</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>4639788</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:13</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>52866385</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Stack_Store_Price.xlsx
+++ b/Stack_Store_Price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C315"/>
+  <dimension ref="A1:C322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5160,6 +5160,111 @@
         <v>52866385</v>
       </c>
     </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2025-02-27 11:23</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2025-02-27 11:23</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>59926</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-02-27 11:23</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>82650</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2025-02-27 11:23</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>250774</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2025-02-27 11:23</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>1422457</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2025-02-27 11:23</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>4099769</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2025-02-27 11:23</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>50313551</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Stack_Store_Price.xlsx
+++ b/Stack_Store_Price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C322"/>
+  <dimension ref="A1:C336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5265,6 +5265,216 @@
         <v>50313551</v>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2025-02-27 16:50</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2025-02-27 16:50</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>61705</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2025-02-27 16:50</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>82777</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2025-02-27 16:50</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>253937</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2025-02-27 16:50</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>1384216</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2025-02-27 16:50</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>4369810</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2025-02-27 16:50</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>46744787</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2025-02-28 23:26</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2025-02-28 23:26</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>63535</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2025-02-28 23:26</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>80446</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2025-02-28 23:26</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>291183</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2025-02-28 23:26</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>1306346</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2025-02-28 23:26</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>4361094</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2025-02-28 23:26</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>44467109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Stack_Store_Price.xlsx
+++ b/Stack_Store_Price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C336"/>
+  <dimension ref="A1:C343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5475,6 +5475,111 @@
         <v>44467109</v>
       </c>
     </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:59</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:59</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>64958</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:59</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>71162</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:59</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>317199</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:59</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>1295776</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:59</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>4326956</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:59</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>44286114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Stack_Store_Price.xlsx
+++ b/Stack_Store_Price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C336"/>
+  <dimension ref="A1:C350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5475,6 +5475,216 @@
         <v>44467109</v>
       </c>
     </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:59</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:59</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>64958</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:59</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>71162</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:59</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>317199</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:59</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>1295776</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:59</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>4326956</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:59</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>44286114</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-03-04 10:08</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-03-04 10:08</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>66300</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-03-04 10:08</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>79081</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-03-04 10:08</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>293502</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-03-04 10:08</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>1294477</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-03-04 10:08</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>4270457</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-03-04 10:08</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>44323315</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Stack_Store_Price.xlsx
+++ b/Stack_Store_Price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C364"/>
+  <dimension ref="A1:C371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5895,6 +5895,111 @@
         <v>43174011</v>
       </c>
     </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2025-03-10 08:58</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2025-03-10 08:58</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>70100</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2025-03-10 08:58</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>68903</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2025-03-10 08:58</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>233626</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2025-03-10 08:58</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>1132797</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2025-03-10 08:58</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>3766939</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2025-03-10 08:58</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>39265739</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Stack_Store_Price.xlsx
+++ b/Stack_Store_Price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C371"/>
+  <dimension ref="A1:C364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5895,111 +5895,6 @@
         <v>43174011</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>2025-03-10 08:58</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>무색 큐브 조각</t>
-        </is>
-      </c>
-      <c r="C365" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>2025-03-10 08:58</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>모순의 결정체</t>
-        </is>
-      </c>
-      <c r="C366" t="n">
-        <v>70100</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>2025-03-10 08:58</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>레어 소울 결정</t>
-        </is>
-      </c>
-      <c r="C367" t="n">
-        <v>68903</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>2025-03-10 08:58</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>유니크 소울 결정</t>
-        </is>
-      </c>
-      <c r="C368" t="n">
-        <v>233626</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>2025-03-10 08:58</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>레전더리 소울 결정</t>
-        </is>
-      </c>
-      <c r="C369" t="n">
-        <v>1132797</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>2025-03-10 08:58</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>에픽 소울 결정</t>
-        </is>
-      </c>
-      <c r="C370" t="n">
-        <v>3766939</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>2025-03-10 08:58</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>태초 소울 결정</t>
-        </is>
-      </c>
-      <c r="C371" t="n">
-        <v>39265739</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Stack_Store_Price.xlsx
+++ b/Stack_Store_Price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C364"/>
+  <dimension ref="A1:C378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5895,6 +5895,216 @@
         <v>43174011</v>
       </c>
     </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2025-03-11 23:35</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2025-03-11 23:35</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>70878</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2025-03-11 23:35</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>72294</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2025-03-11 23:35</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>272863</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2025-03-11 23:35</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>1285191</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2025-03-11 23:35</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>3942808</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2025-03-11 23:35</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>43890806</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2025-03-11 23:45</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2025-03-11 23:45</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>70582</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2025-03-11 23:45</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>73476</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2025-03-11 23:45</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>244225</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2025-03-11 23:45</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>1300904</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2025-03-11 23:45</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>3962970</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2025-03-11 23:45</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>43585743</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Stack_Store_Price.xlsx
+++ b/Stack_Store_Price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C378"/>
+  <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6105,6 +6105,111 @@
         <v>43585743</v>
       </c>
     </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2025-03-14 23:16</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>무색 큐브 조각</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2025-03-14 23:16</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>모순의 결정체</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>72541</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2025-03-14 23:16</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>레어 소울 결정</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>61433</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2025-03-14 23:16</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>유니크 소울 결정</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>262185</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2025-03-14 23:16</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>레전더리 소울 결정</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>1158842</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2025-03-14 23:16</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>에픽 소울 결정</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>3810209</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2025-03-14 23:16</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>태초 소울 결정</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>36345422</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
